--- a/workingfolder/OtherData/CPIM.xlsx
+++ b/workingfolder/OtherData/CPIM.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Inf1yf_CPIAU</t>
+    <t>Inf1y_CPIAU</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>34700</v>
       </c>
       <c r="B2">
-        <v>2.790697574615479</v>
+        <v>2.870811223983765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>34731</v>
       </c>
       <c r="B3">
-        <v>2.717031240463257</v>
+        <v>2.862983703613281</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>34759</v>
       </c>
       <c r="B4">
-        <v>2.843915462493896</v>
+        <v>2.787213325500488</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>34790</v>
       </c>
       <c r="B5">
-        <v>2.832674503326416</v>
+        <v>3.125004291534424</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>34820</v>
       </c>
       <c r="B6">
-        <v>2.82708740234375</v>
+        <v>3.118648290634155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>34851</v>
       </c>
       <c r="B7">
-        <v>2.821522235870361</v>
+        <v>3.042596578598022</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>34881</v>
       </c>
       <c r="B8">
-        <v>2.883355140686035</v>
+        <v>2.830197095870972</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>34912</v>
       </c>
       <c r="B9">
-        <v>2.81229567527771</v>
+        <v>2.617445468902588</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>34943</v>
       </c>
       <c r="B10">
-        <v>3.004572153091431</v>
+        <v>2.545212984085083</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>34973</v>
       </c>
       <c r="B11">
-        <v>3.061889171600342</v>
+        <v>2.744314670562744</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>35004</v>
       </c>
       <c r="B12">
-        <v>3.253090381622314</v>
+        <v>2.603467226028442</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>35034</v>
       </c>
       <c r="B13">
-        <v>3.378817319869995</v>
+        <v>2.53163743019104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>35065</v>
       </c>
       <c r="B14">
-        <v>3.038138389587402</v>
+        <v>2.790695667266846</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>35096</v>
       </c>
       <c r="B15">
-        <v>3.032258033752441</v>
+        <v>2.717035293579102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>35125</v>
       </c>
       <c r="B16">
-        <v>2.765273332595825</v>
+        <v>2.843917369842529</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>35156</v>
       </c>
       <c r="B17">
-        <v>2.43433690071106</v>
+        <v>2.832676410675049</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>35186</v>
       </c>
       <c r="B18">
-        <v>2.237851619720459</v>
+        <v>2.827079296112061</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>35217</v>
       </c>
       <c r="B19">
-        <v>2.233567237854004</v>
+        <v>2.821524381637573</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>35247</v>
       </c>
       <c r="B20">
-        <v>2.165605068206787</v>
+        <v>2.88335108757019</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>35278</v>
       </c>
       <c r="B21">
-        <v>2.29007625579834</v>
+        <v>2.812297821044922</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>35309</v>
       </c>
       <c r="B22">
-        <v>2.219403982162476</v>
+        <v>3.004566192626953</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>35339</v>
       </c>
       <c r="B23">
-        <v>2.085967063903809</v>
+        <v>3.061887264251709</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>35370</v>
       </c>
       <c r="B24">
-        <v>1.890359163284302</v>
+        <v>3.253090381622314</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>35400</v>
       </c>
       <c r="B25">
-        <v>1.697045922279358</v>
+        <v>3.378825426101685</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>35431</v>
       </c>
       <c r="B26">
-        <v>1.631116628646851</v>
+        <v>3.03813648223877</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>35462</v>
       </c>
       <c r="B27">
-        <v>1.440200328826904</v>
+        <v>3.032256126403809</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>35490</v>
       </c>
       <c r="B28">
-        <v>1.376720905303955</v>
+        <v>2.765275239944458</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>35521</v>
       </c>
       <c r="B29">
-        <v>1.438398957252502</v>
+        <v>2.434329032897949</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>35551</v>
       </c>
       <c r="B30">
-        <v>1.688555359840393</v>
+        <v>2.237851858139038</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>35582</v>
       </c>
       <c r="B31">
-        <v>1.622971296310425</v>
+        <v>2.233567476272583</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>35612</v>
       </c>
       <c r="B32">
-        <v>1.745635867118835</v>
+        <v>2.165601253509521</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>35643</v>
       </c>
       <c r="B33">
-        <v>1.616915464401245</v>
+        <v>2.290080308914185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>35674</v>
       </c>
       <c r="B34">
-        <v>1.426799058914185</v>
+        <v>2.219403982162476</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>35704</v>
       </c>
       <c r="B35">
-        <v>1.48606812953949</v>
+        <v>2.085969209671021</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>35735</v>
       </c>
       <c r="B36">
-        <v>1.484230041503906</v>
+        <v>1.890359163284302</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>35765</v>
       </c>
       <c r="B37">
-        <v>1.606922149658203</v>
+        <v>1.697043895721436</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>35796</v>
       </c>
       <c r="B38">
-        <v>1.666666626930237</v>
+        <v>1.631120562553406</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>35827</v>
       </c>
       <c r="B39">
-        <v>1.666666626930237</v>
+        <v>1.440202355384827</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>35855</v>
       </c>
       <c r="B40">
-        <v>1.728395104408264</v>
+        <v>1.376718997955322</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>35886</v>
       </c>
       <c r="B41">
-        <v>2.281134366989136</v>
+        <v>1.438400983810425</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>35916</v>
       </c>
       <c r="B42">
-        <v>2.091020822525024</v>
+        <v>1.688562989234924</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>35947</v>
       </c>
       <c r="B43">
-        <v>1.965601921081543</v>
+        <v>1.62297511100769</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>35977</v>
       </c>
       <c r="B44">
-        <v>2.144607782363892</v>
+        <v>1.745637893676758</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>36008</v>
       </c>
       <c r="B45">
-        <v>2.264381885528564</v>
+        <v>1.616909742355347</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>36039</v>
       </c>
       <c r="B46">
-        <v>2.629969358444214</v>
+        <v>1.426800966262817</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>36069</v>
       </c>
       <c r="B47">
-        <v>2.562538146972656</v>
+        <v>1.486064314842224</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>36100</v>
       </c>
       <c r="B48">
-        <v>2.62035346031189</v>
+        <v>1.484235763549805</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>36130</v>
       </c>
       <c r="B49">
-        <v>2.676398992538452</v>
+        <v>1.606916427612305</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>36161</v>
       </c>
       <c r="B50">
-        <v>2.792956829071045</v>
+        <v>1.666664838790894</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>36192</v>
       </c>
       <c r="B51">
-        <v>3.217972040176392</v>
+        <v>1.666664838790894</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>36220</v>
       </c>
       <c r="B52">
-        <v>3.762135982513428</v>
+        <v>1.728396892547607</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>36251</v>
       </c>
       <c r="B53">
-        <v>3.013863801956177</v>
+        <v>2.281132459640503</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>36281</v>
       </c>
       <c r="B54">
-        <v>3.132530212402344</v>
+        <v>2.091017007827759</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>36312</v>
       </c>
       <c r="B55">
-        <v>3.734939813613892</v>
+        <v>1.96560001373291</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>36342</v>
       </c>
       <c r="B56">
-        <v>3.599280118942261</v>
+        <v>2.144607782363892</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>36373</v>
       </c>
       <c r="B57">
-        <v>3.351286649703979</v>
+        <v>2.264389514923096</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>36404</v>
       </c>
       <c r="B58">
-        <v>3.456495761871338</v>
+        <v>2.629971265792847</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>36434</v>
       </c>
       <c r="B59">
-        <v>3.450327157974243</v>
+        <v>2.562545776367188</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>36465</v>
       </c>
       <c r="B60">
-        <v>3.444180488586426</v>
+        <v>2.620345830917358</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>36495</v>
       </c>
       <c r="B61">
-        <v>3.436018943786621</v>
+        <v>2.676404714584351</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>36526</v>
       </c>
       <c r="B62">
-        <v>3.721204996109009</v>
+        <v>2.792960643768311</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>36557</v>
       </c>
       <c r="B63">
-        <v>3.529411792755127</v>
+        <v>3.217973947525024</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>36586</v>
       </c>
       <c r="B64">
-        <v>2.982456207275391</v>
+        <v>3.762134075164795</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>36617</v>
       </c>
       <c r="B65">
-        <v>3.218256235122681</v>
+        <v>3.013863801956177</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>36647</v>
       </c>
       <c r="B66">
-        <v>3.563084125518799</v>
+        <v>3.132528305053711</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>36678</v>
       </c>
       <c r="B67">
-        <v>3.193960428237915</v>
+        <v>3.734937906265259</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>36708</v>
       </c>
       <c r="B68">
-        <v>2.721482276916504</v>
+        <v>3.599280118942261</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>36739</v>
       </c>
       <c r="B69">
-        <v>2.721482276916504</v>
+        <v>3.35128116607666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>36770</v>
       </c>
       <c r="B70">
-        <v>2.592165946960449</v>
+        <v>3.456497669219971</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>36800</v>
       </c>
       <c r="B71">
-        <v>2.127659559249878</v>
+        <v>3.450319766998291</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>36831</v>
       </c>
       <c r="B72">
-        <v>1.894374251365662</v>
+        <v>3.444182395935059</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>36861</v>
       </c>
       <c r="B73">
-        <v>1.603665471076965</v>
+        <v>3.436020612716675</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>36892</v>
       </c>
       <c r="B74">
-        <v>1.195899724960327</v>
+        <v>3.721206665039062</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>36923</v>
       </c>
       <c r="B75">
-        <v>1.136363625526428</v>
+        <v>3.529411792755127</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>36951</v>
       </c>
       <c r="B76">
-        <v>1.36286199092865</v>
+        <v>2.982459783554077</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>36982</v>
       </c>
       <c r="B77">
-        <v>1.643990874290466</v>
+        <v>3.21825647354126</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>37012</v>
       </c>
       <c r="B78">
-        <v>1.240834712982178</v>
+        <v>3.563087701797485</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>37043</v>
       </c>
       <c r="B79">
-        <v>1.069217801094055</v>
+        <v>3.193960666656494</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>37073</v>
       </c>
       <c r="B80">
-        <v>1.465614438056946</v>
+        <v>2.72148060798645</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>37104</v>
       </c>
       <c r="B81">
-        <v>1.747463345527649</v>
+        <v>2.72148060798645</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>37135</v>
       </c>
       <c r="B82">
-        <v>1.516002297401428</v>
+        <v>2.59216570854187</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>37165</v>
       </c>
       <c r="B83">
-        <v>2.027027130126953</v>
+        <v>2.127666711807251</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>37196</v>
       </c>
       <c r="B84">
-        <v>2.253521203994751</v>
+        <v>1.894376039505005</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>37226</v>
       </c>
       <c r="B85">
-        <v>2.480270624160767</v>
+        <v>1.603658437728882</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>37257</v>
       </c>
       <c r="B86">
-        <v>2.757456302642822</v>
+        <v>1.195894479751587</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>37288</v>
       </c>
       <c r="B87">
-        <v>3.146067380905151</v>
+        <v>1.136363625526428</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>37316</v>
       </c>
       <c r="B88">
-        <v>3.02521014213562</v>
+        <v>1.362858533859253</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>37347</v>
       </c>
       <c r="B89">
-        <v>2.175125598907471</v>
+        <v>1.643996119499207</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>37377</v>
       </c>
       <c r="B90">
-        <v>1.894150376319885</v>
+        <v>1.240833044052124</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>37408</v>
       </c>
       <c r="B91">
-        <v>1.948775053024292</v>
+        <v>1.069222927093506</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>37438</v>
       </c>
       <c r="B92">
-        <v>2.055555582046509</v>
+        <v>1.465617895126343</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>37469</v>
       </c>
       <c r="B93">
-        <v>2.216066598892212</v>
+        <v>1.747466802597046</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>37500</v>
       </c>
       <c r="B94">
-        <v>2.378318548202515</v>
+        <v>1.516000509262085</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>37530</v>
       </c>
       <c r="B95">
-        <v>2.041942596435547</v>
+        <v>2.027021884918213</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>37561</v>
       </c>
       <c r="B96">
-        <v>1.928374648094177</v>
+        <v>2.253521203994751</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>37591</v>
       </c>
       <c r="B97">
-        <v>2.035203456878662</v>
+        <v>2.480275869369507</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>37622</v>
       </c>
       <c r="B98">
-        <v>2.026287078857422</v>
+        <v>2.757461547851562</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>37653</v>
       </c>
       <c r="B99">
-        <v>1.688453197479248</v>
+        <v>3.146070957183838</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>37681</v>
       </c>
       <c r="B100">
-        <v>1.740076184272766</v>
+        <v>3.025206565856934</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>37712</v>
       </c>
       <c r="B101">
-        <v>2.292576313018799</v>
+        <v>2.175122022628784</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>37742</v>
       </c>
       <c r="B102">
-        <v>2.89775824546814</v>
+        <v>1.894147038459778</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>37773</v>
       </c>
       <c r="B103">
-        <v>3.167667865753174</v>
+        <v>1.948774933815002</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>37803</v>
       </c>
       <c r="B104">
-        <v>2.939575433731079</v>
+        <v>2.055553913116455</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>37834</v>
       </c>
       <c r="B105">
-        <v>2.547425508499146</v>
+        <v>2.216066598892212</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>37865</v>
       </c>
       <c r="B106">
-        <v>2.539168119430542</v>
+        <v>2.378320217132568</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>37895</v>
       </c>
       <c r="B107">
-        <v>3.190913915634155</v>
+        <v>2.041940927505493</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>37926</v>
       </c>
       <c r="B108">
-        <v>3.621621608734131</v>
+        <v>1.928374648094177</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>37956</v>
       </c>
       <c r="B109">
-        <v>3.342318058013916</v>
+        <v>2.035201787948608</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>37987</v>
       </c>
       <c r="B110">
-        <v>2.844873905181885</v>
+        <v>2.026285171508789</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>38018</v>
       </c>
       <c r="B111">
-        <v>3.05302619934082</v>
+        <v>1.688448071479797</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>38047</v>
       </c>
       <c r="B112">
-        <v>3.206841230392456</v>
+        <v>1.740082859992981</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>38078</v>
       </c>
       <c r="B113">
-        <v>3.361793041229248</v>
+        <v>2.292574882507324</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>38108</v>
       </c>
       <c r="B114">
-        <v>2.869287967681885</v>
+        <v>2.897760152816772</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>38139</v>
       </c>
       <c r="B115">
-        <v>2.541027069091797</v>
+        <v>3.167661190032959</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>38169</v>
       </c>
       <c r="B116">
-        <v>3.067160129547119</v>
+        <v>2.93958044052124</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>38200</v>
       </c>
       <c r="B117">
-        <v>3.646934509277344</v>
+        <v>2.547423839569092</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>38231</v>
       </c>
       <c r="B118">
-        <v>4.741833686828613</v>
+        <v>2.539166212081909</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>38261</v>
       </c>
       <c r="B119">
-        <v>4.350104808807373</v>
+        <v>3.190919160842896</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>38292</v>
       </c>
       <c r="B120">
-        <v>3.338549852371216</v>
+        <v>3.621619939804077</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>38322</v>
       </c>
       <c r="B121">
-        <v>3.338549852371216</v>
+        <v>3.342316389083862</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>38353</v>
       </c>
       <c r="B122">
-        <v>4.018789291381836</v>
+        <v>2.844875335693359</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>38384</v>
       </c>
       <c r="B123">
-        <v>3.638253688812256</v>
+        <v>3.053024768829346</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>38412</v>
       </c>
       <c r="B124">
-        <v>3.41791820526123</v>
+        <v>3.206841230392456</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>38443</v>
       </c>
       <c r="B125">
-        <v>3.61383581161499</v>
+        <v>3.361794710159302</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>38473</v>
       </c>
       <c r="B126">
-        <v>3.977272748947144</v>
+        <v>2.869292974472046</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>38504</v>
       </c>
       <c r="B127">
-        <v>4.181724548339844</v>
+        <v>2.541028738021851</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>38534</v>
       </c>
       <c r="B128">
-        <v>4.104669094085693</v>
+        <v>3.067153692245483</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>38565</v>
       </c>
       <c r="B129">
-        <v>3.926568031311035</v>
+        <v>3.646939277648926</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>38596</v>
       </c>
       <c r="B130">
-        <v>2.012072324752808</v>
+        <v>4.741833209991455</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>38626</v>
       </c>
       <c r="B131">
-        <v>1.406328439712524</v>
+        <v>4.350106239318848</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>38657</v>
       </c>
       <c r="B132">
-        <v>1.968702673912048</v>
+        <v>3.338554620742798</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>38687</v>
       </c>
       <c r="B133">
-        <v>2.523977756500244</v>
+        <v>3.338554620742798</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>38718</v>
       </c>
       <c r="B134">
-        <v>2.075765132904053</v>
+        <v>4.018787384033203</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>38749</v>
       </c>
       <c r="B135">
-        <v>2.420260667800903</v>
+        <v>3.638253688812256</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>38777</v>
       </c>
       <c r="B136">
-        <v>2.798197269439697</v>
+        <v>3.417913436889648</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>38808</v>
       </c>
       <c r="B137">
-        <v>2.592924833297729</v>
+        <v>3.61383581161499</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>38838</v>
       </c>
       <c r="B138">
-        <v>2.709885835647583</v>
+        <v>3.97727108001709</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>38869</v>
       </c>
       <c r="B139">
-        <v>2.6927649974823</v>
+        <v>4.181727409362793</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>38899</v>
       </c>
       <c r="B140">
-        <v>2.317890644073486</v>
+        <v>4.104669094085693</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>38930</v>
       </c>
       <c r="B141">
-        <v>1.897448420524597</v>
+        <v>3.926566362380981</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>38961</v>
       </c>
       <c r="B142">
-        <v>2.833826541900635</v>
+        <v>2.012072324752808</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>38991</v>
       </c>
       <c r="B143">
-        <v>3.610698461532593</v>
+        <v>1.406322360038757</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>39022</v>
       </c>
       <c r="B144">
-        <v>4.37326717376709</v>
+        <v>1.96869957447052</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>39052</v>
       </c>
       <c r="B145">
-        <v>4.108813285827637</v>
+        <v>2.523977756500244</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>39083</v>
       </c>
       <c r="B146">
-        <v>4.294695854187012</v>
+        <v>2.075761795043945</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>39114</v>
       </c>
       <c r="B147">
-        <v>4.142959117889404</v>
+        <v>2.420262813568115</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>39142</v>
       </c>
       <c r="B148">
-        <v>3.974903583526611</v>
+        <v>2.798196077346802</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>39173</v>
       </c>
       <c r="B149">
-        <v>3.90376091003418</v>
+        <v>2.592929840087891</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>39203</v>
       </c>
       <c r="B150">
-        <v>4.088413715362549</v>
+        <v>2.70988655090332</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>39234</v>
       </c>
       <c r="B151">
-        <v>4.935966014862061</v>
+        <v>2.692760467529297</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>39264</v>
       </c>
       <c r="B152">
-        <v>5.497511863708496</v>
+        <v>2.317892074584961</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>39295</v>
       </c>
       <c r="B153">
-        <v>5.308017253875732</v>
+        <v>1.897450566291809</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>39326</v>
       </c>
       <c r="B154">
-        <v>4.953320026397705</v>
+        <v>2.833823442459106</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>39356</v>
       </c>
       <c r="B155">
-        <v>3.73105788230896</v>
+        <v>3.610702753067017</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>39387</v>
       </c>
       <c r="B156">
-        <v>1.099917411804199</v>
+        <v>4.37326717376709</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>39417</v>
       </c>
       <c r="B157">
-        <v>-0.02222800254821777</v>
+        <v>4.108813762664795</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>39448</v>
       </c>
       <c r="B158">
-        <v>-0.1135860159993172</v>
+        <v>4.294695377349854</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>39479</v>
       </c>
       <c r="B159">
-        <v>0.008463140577077866</v>
+        <v>4.142958641052246</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>39508</v>
       </c>
       <c r="B160">
-        <v>-0.4464787542819977</v>
+        <v>3.974905490875244</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>39539</v>
       </c>
       <c r="B161">
-        <v>-0.5763244032859802</v>
+        <v>3.90375804901123</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>39569</v>
       </c>
       <c r="B162">
-        <v>-1.015761494636536</v>
+        <v>4.08840799331665</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>39600</v>
       </c>
       <c r="B163">
-        <v>-1.229174613952637</v>
+        <v>4.935967922210693</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>39630</v>
       </c>
       <c r="B164">
-        <v>-1.958760976791382</v>
+        <v>5.497516632080078</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>39661</v>
       </c>
       <c r="B165">
-        <v>-1.483835577964783</v>
+        <v>5.308014392852783</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>39692</v>
       </c>
       <c r="B166">
-        <v>-1.37794291973114</v>
+        <v>4.953320980072021</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>39722</v>
       </c>
       <c r="B167">
-        <v>-0.2239682972431183</v>
+        <v>3.731054306030273</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>39753</v>
       </c>
       <c r="B168">
-        <v>1.914587140083313</v>
+        <v>1.099917531013489</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>39783</v>
       </c>
       <c r="B169">
-        <v>2.814123153686523</v>
+        <v>-0.02223383262753487</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>39814</v>
       </c>
       <c r="B170">
-        <v>2.621111392974854</v>
+        <v>-0.1135847568511963</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>39845</v>
       </c>
       <c r="B171">
-        <v>2.151336431503296</v>
+        <v>0.008465666323900223</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>39873</v>
       </c>
       <c r="B172">
-        <v>2.286171436309814</v>
+        <v>-0.4464801549911499</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>39904</v>
       </c>
       <c r="B173">
-        <v>2.206770658493042</v>
+        <v>-0.5763252377510071</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>39934</v>
       </c>
       <c r="B174">
-        <v>2.003548860549927</v>
+        <v>-1.015756607055664</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>39965</v>
       </c>
       <c r="B175">
-        <v>1.121560573577881</v>
+        <v>-1.22917652130127</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>39995</v>
       </c>
       <c r="B176">
-        <v>1.340778470039368</v>
+        <v>-1.958764791488647</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>40026</v>
       </c>
       <c r="B177">
-        <v>1.150177597999573</v>
+        <v>-1.483833312988281</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>40057</v>
       </c>
       <c r="B178">
-        <v>1.118312239646912</v>
+        <v>-1.377945780754089</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>40087</v>
       </c>
       <c r="B179">
-        <v>1.166695117950439</v>
+        <v>-0.2239648103713989</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>40118</v>
       </c>
       <c r="B180">
-        <v>1.084544777870178</v>
+        <v>1.914584159851074</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>40148</v>
       </c>
       <c r="B181">
-        <v>1.437793016433716</v>
+        <v>2.814125537872314</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>40179</v>
       </c>
       <c r="B182">
-        <v>1.700783491134644</v>
+        <v>2.621115207672119</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>40210</v>
       </c>
       <c r="B183">
-        <v>2.124898195266724</v>
+        <v>2.151338338851929</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>40238</v>
       </c>
       <c r="B184">
-        <v>2.61924147605896</v>
+        <v>2.286172389984131</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>40269</v>
       </c>
       <c r="B185">
-        <v>3.077234506607056</v>
+        <v>2.206770896911621</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>40299</v>
       </c>
       <c r="B186">
-        <v>3.458971977233887</v>
+        <v>2.003544330596924</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>40330</v>
       </c>
       <c r="B187">
-        <v>3.502318143844604</v>
+        <v>1.12156617641449</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>40360</v>
       </c>
       <c r="B188">
-        <v>3.579880952835083</v>
+        <v>1.340777516365051</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>40391</v>
       </c>
       <c r="B189">
-        <v>3.754996061325073</v>
+        <v>1.150176048278809</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>40422</v>
       </c>
       <c r="B190">
-        <v>3.812621593475342</v>
+        <v>1.118312954902649</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>40452</v>
       </c>
       <c r="B191">
-        <v>3.522268056869507</v>
+        <v>1.166695594787598</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>40483</v>
       </c>
       <c r="B192">
-        <v>3.451432228088379</v>
+        <v>1.084546089172363</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>40513</v>
       </c>
       <c r="B193">
-        <v>3.062066793441772</v>
+        <v>1.437793016433716</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>40544</v>
       </c>
       <c r="B194">
-        <v>3.008766412734985</v>
+        <v>1.700778722763062</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>40575</v>
       </c>
       <c r="B195">
-        <v>2.898178339004517</v>
+        <v>2.124893188476562</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>40603</v>
       </c>
       <c r="B196">
-        <v>2.58287525177002</v>
+        <v>2.619245529174805</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>40634</v>
       </c>
       <c r="B197">
-        <v>2.273163318634033</v>
+        <v>3.077235460281372</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>40664</v>
       </c>
       <c r="B198">
-        <v>1.737942934036255</v>
+        <v>3.458975076675415</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>40695</v>
       </c>
       <c r="B199">
-        <v>1.653870463371277</v>
+        <v>3.502315521240234</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>40725</v>
       </c>
       <c r="B200">
-        <v>1.417511463165283</v>
+        <v>3.579885005950928</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>40756</v>
       </c>
       <c r="B201">
-        <v>1.685934901237488</v>
+        <v>3.754995346069336</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>40787</v>
       </c>
       <c r="B202">
-        <v>1.949716925621033</v>
+        <v>3.81262469291687</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>40817</v>
       </c>
       <c r="B203">
-        <v>2.155678033828735</v>
+        <v>3.522266387939453</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>40848</v>
       </c>
       <c r="B204">
-        <v>1.796019673347473</v>
+        <v>3.451436758041382</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>40878</v>
       </c>
       <c r="B205">
-        <v>1.759505033493042</v>
+        <v>3.06207013130188</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>40909</v>
       </c>
       <c r="B206">
-        <v>1.684061765670776</v>
+        <v>3.008765935897827</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>40940</v>
       </c>
       <c r="B207">
-        <v>2.018140554428101</v>
+        <v>2.898178339004517</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>40969</v>
       </c>
       <c r="B208">
-        <v>1.518747210502625</v>
+        <v>2.582875967025757</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>41000</v>
       </c>
       <c r="B209">
-        <v>1.138808012008667</v>
+        <v>2.273160696029663</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>41030</v>
       </c>
       <c r="B210">
-        <v>1.3903888463974</v>
+        <v>1.737941861152649</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>41061</v>
       </c>
       <c r="B211">
-        <v>1.715793490409851</v>
+        <v>1.653871536254883</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>41091</v>
       </c>
       <c r="B212">
-        <v>1.885471820831299</v>
+        <v>1.417507886886597</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>41122</v>
       </c>
       <c r="B213">
-        <v>1.538809537887573</v>
+        <v>1.685933351516724</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>41153</v>
       </c>
       <c r="B214">
-        <v>1.094734072685242</v>
+        <v>1.949716567993164</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>41183</v>
       </c>
       <c r="B215">
-        <v>0.8767991662025452</v>
+        <v>2.155678272247314</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>41214</v>
       </c>
       <c r="B216">
-        <v>1.232870221138</v>
+        <v>1.796013712882996</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>41244</v>
       </c>
       <c r="B217">
-        <v>1.512838363647461</v>
+        <v>1.759498715400696</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>41275</v>
       </c>
       <c r="B218">
-        <v>1.557758808135986</v>
+        <v>1.684064269065857</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>41306</v>
       </c>
       <c r="B219">
-        <v>1.120474576950073</v>
+        <v>2.018141269683838</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>41334</v>
       </c>
       <c r="B220">
-        <v>1.6126948595047</v>
+        <v>1.51874315738678</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>41365</v>
       </c>
       <c r="B221">
-        <v>2.015125274658203</v>
+        <v>1.138808369636536</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>41395</v>
       </c>
       <c r="B222">
-        <v>2.166947603225708</v>
+        <v>1.390392303466797</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>41426</v>
       </c>
       <c r="B223">
-        <v>2.058981657028198</v>
+        <v>1.715795755386353</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>41456</v>
       </c>
       <c r="B224">
-        <v>1.97423791885376</v>
+        <v>1.885470747947693</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>41487</v>
       </c>
       <c r="B225">
-        <v>1.71509838104248</v>
+        <v>1.538807034492493</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>41518</v>
       </c>
       <c r="B226">
-        <v>1.684050917625427</v>
+        <v>1.09473717212677</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>41548</v>
       </c>
       <c r="B227">
-        <v>1.609541654586792</v>
+        <v>0.8768016695976257</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>41579</v>
       </c>
       <c r="B228">
-        <v>1.23152494430542</v>
+        <v>1.232875943183899</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>41609</v>
       </c>
       <c r="B229">
-        <v>0.6531214118003845</v>
+        <v>1.512838840484619</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>41640</v>
       </c>
       <c r="B230">
-        <v>-0.2299309819936752</v>
+        <v>1.557755947113037</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>41671</v>
       </c>
       <c r="B231">
-        <v>-0.08703146129846573</v>
+        <v>1.120474934577942</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>41699</v>
       </c>
       <c r="B232">
-        <v>-0.02203128486871719</v>
+        <v>1.612695932388306</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>41730</v>
       </c>
       <c r="B233">
-        <v>-0.1040309891104698</v>
+        <v>2.015127658843994</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>41760</v>
       </c>
       <c r="B234">
-        <v>0.035033218562603</v>
+        <v>2.166944980621338</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>41791</v>
       </c>
       <c r="B235">
-        <v>0.179571807384491</v>
+        <v>2.058979749679565</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>41821</v>
       </c>
       <c r="B236">
-        <v>0.2256861180067062</v>
+        <v>1.974241018295288</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>41852</v>
       </c>
       <c r="B237">
-        <v>0.2413038015365601</v>
+        <v>1.715103983879089</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>41883</v>
       </c>
       <c r="B238">
-        <v>0.008842961862683296</v>
+        <v>1.684050321578979</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>41913</v>
       </c>
       <c r="B239">
-        <v>0.1276165544986725</v>
+        <v>1.609535813331604</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>41944</v>
       </c>
       <c r="B240">
-        <v>0.4363182187080383</v>
+        <v>1.231523036956787</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>41974</v>
       </c>
       <c r="B241">
-        <v>0.6387247443199158</v>
+        <v>0.6531234383583069</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>42005</v>
       </c>
       <c r="B242">
-        <v>1.312050819396973</v>
+        <v>-0.2299311459064484</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>42036</v>
       </c>
       <c r="B243">
-        <v>0.9229121804237366</v>
+        <v>-0.08703224360942841</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>42064</v>
       </c>
       <c r="B244">
-        <v>0.8534766435623169</v>
+        <v>-0.02203211188316345</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>42095</v>
       </c>
       <c r="B245">
-        <v>1.106162905693054</v>
+        <v>-0.1040319204330444</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>42125</v>
       </c>
       <c r="B246">
-        <v>1.029109597206116</v>
+        <v>0.03503651544451714</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>42156</v>
       </c>
       <c r="B247">
-        <v>1.046466112136841</v>
+        <v>0.1795696467161179</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>42186</v>
       </c>
       <c r="B248">
-        <v>0.872564435005188</v>
+        <v>0.2256842106580734</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>42217</v>
       </c>
       <c r="B249">
-        <v>1.076321363449097</v>
+        <v>0.2413029670715332</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>42248</v>
       </c>
       <c r="B250">
-        <v>1.503170609474182</v>
+        <v>0.008841316215693951</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>42278</v>
       </c>
       <c r="B251">
-        <v>1.643860936164856</v>
+        <v>0.1276203691959381</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>42309</v>
       </c>
       <c r="B252">
-        <v>1.670468926429749</v>
+        <v>0.4363167583942413</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>42339</v>
       </c>
       <c r="B253">
-        <v>2.082343101501465</v>
+        <v>0.6387258768081665</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>42370</v>
       </c>
       <c r="B254">
-        <v>2.476590156555176</v>
+        <v>1.237501978874207</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>42401</v>
       </c>
       <c r="B255">
-        <v>2.742575168609619</v>
+        <v>0.8472790122032166</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>42430</v>
       </c>
       <c r="B256">
-        <v>2.408084392547607</v>
+        <v>0.8916177749633789</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>42461</v>
       </c>
       <c r="B257">
-        <v>2.186865329742432</v>
+        <v>1.172627568244934</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>42491</v>
       </c>
       <c r="B258">
-        <v>1.873538255691528</v>
+        <v>1.078476309776306</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>42522</v>
       </c>
       <c r="B259">
-        <v>1.680241823196411</v>
+        <v>1.079287528991699</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>42552</v>
       </c>
       <c r="B260">
-        <v>1.756271004676819</v>
+        <v>0.8683639168739319</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>42583</v>
       </c>
       <c r="B261">
-        <v>1.957231044769287</v>
+        <v>1.055313110351562</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>42614</v>
       </c>
       <c r="B262">
-        <v>2.230490922927856</v>
+        <v>1.548642039299011</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>42644</v>
       </c>
       <c r="B263">
-        <v>2.03980278968811</v>
+        <v>1.685923099517822</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>42675</v>
       </c>
       <c r="B264">
-        <v>2.206675291061401</v>
+        <v>1.684334635734558</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>42705</v>
       </c>
       <c r="B265">
-        <v>2.115676164627075</v>
+        <v>2.050795555114746</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>42736</v>
       </c>
       <c r="B266">
-        <v>2.092180728912354</v>
+        <v>2.510394811630249</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>42767</v>
       </c>
       <c r="B267">
-        <v>2.232120990753174</v>
+        <v>2.810360908508301</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>42795</v>
       </c>
       <c r="B268">
-        <v>2.335457324981689</v>
+        <v>2.441194772720337</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>42826</v>
       </c>
       <c r="B269">
-        <v>2.417048454284668</v>
+        <v>2.176218748092651</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>42856</v>
       </c>
       <c r="B270">
-        <v>2.752474069595337</v>
+        <v>1.856339335441589</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>42887</v>
       </c>
       <c r="B271">
-        <v>2.865520715713501</v>
+        <v>1.640563368797302</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>42917</v>
       </c>
       <c r="B272">
-        <v>2.928031206130981</v>
+        <v>1.725106596946716</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>42948</v>
       </c>
       <c r="B273">
-        <v>2.690946817398071</v>
+        <v>1.92812180519104</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>42979</v>
       </c>
       <c r="B274">
-        <v>2.359958648681641</v>
+        <v>2.180566310882568</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>43009</v>
       </c>
       <c r="B275">
-        <v>2.517337799072266</v>
+        <v>2.020761728286743</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>43040</v>
       </c>
       <c r="B276">
-        <v>2.154585123062134</v>
+        <v>2.172492027282715</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>43070</v>
       </c>
       <c r="B277">
-        <v>1.939099550247192</v>
+        <v>2.12993049621582</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>43101</v>
       </c>
       <c r="B278">
-        <v>1.500707387924194</v>
+        <v>2.103703260421753</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>43132</v>
       </c>
       <c r="B279">
-        <v>1.485519647598267</v>
+        <v>2.226583957672119</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>43160</v>
       </c>
       <c r="B280">
-        <v>1.877207636833191</v>
+        <v>2.332587957382202</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>43191</v>
       </c>
       <c r="B281">
-        <v>1.99474310874939</v>
+        <v>2.437827110290527</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>43221</v>
       </c>
       <c r="B282">
-        <v>1.80617618560791</v>
+        <v>2.776597499847412</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>43252</v>
       </c>
       <c r="B283">
-        <v>1.682485580444336</v>
+        <v>2.848507642745972</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>43282</v>
       </c>
       <c r="B284">
-        <v>1.83114492893219</v>
+        <v>2.89875316619873</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>43313</v>
       </c>
       <c r="B285">
-        <v>1.742323517799377</v>
+        <v>2.677997350692749</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>43344</v>
       </c>
       <c r="B286">
-        <v>1.717269062995911</v>
+        <v>2.355185270309448</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>43374</v>
       </c>
       <c r="B287">
-        <v>1.761236190795898</v>
+        <v>2.528521776199341</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>43405</v>
       </c>
       <c r="B288">
-        <v>2.04304575920105</v>
+        <v>2.172805786132812</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>43435</v>
       </c>
       <c r="B289">
-        <v>2.292076587677002</v>
+        <v>1.915216565132141</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>43466</v>
       </c>
       <c r="B290">
-        <v>2.48267674446106</v>
+        <v>1.498335599899292</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,319 @@
         <v>43497</v>
       </c>
       <c r="B291">
-        <v>2.31810450553894</v>
+        <v>1.481724619865417</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B292">
+        <v>1.879951357841492</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B293">
+        <v>2.005628108978271</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B294">
+        <v>1.812747478485107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B295">
+        <v>1.689642429351807</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B296">
+        <v>1.821160793304443</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B297">
+        <v>1.759686350822449</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B298">
+        <v>1.727334022521973</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B299">
+        <v>1.757082223892212</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B300">
+        <v>2.030815124511719</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B301">
+        <v>2.261723756790161</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B302">
+        <v>2.460492610931396</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B303">
+        <v>2.319708585739136</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B304">
+        <v>1.530643701553345</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B305">
+        <v>0.3648647367954254</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B306">
+        <v>0.242437407374382</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B307">
+        <v>0.7268213033676147</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B308">
+        <v>1.032827496528625</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B309">
+        <v>1.327587842941284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B310">
+        <v>1.400642991065979</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B311">
+        <v>1.184196591377258</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B312">
+        <v>1.137762069702148</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B313">
+        <v>1.278152465820312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B314">
+        <v>1.359972953796387</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B315">
+        <v>1.675251960754395</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B316">
+        <v>2.658379793167114</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B317">
+        <v>4.151989459991455</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B318">
+        <v>4.944440364837646</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B319">
+        <v>5.341006278991699</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B320">
+        <v>5.276101589202881</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B321">
+        <v>5.205341339111328</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B322">
+        <v>5.389902114868164</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B323">
+        <v>6.23694372177124</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B324">
+        <v>6.828363418579102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B325">
+        <v>7.09654712677002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B326">
+        <v>7.52593469619751</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B327">
+        <v>7.912023544311523</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B328">
+        <v>8.557582855224609</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B329">
+        <v>8.224141120910645</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B330">
+        <v>8.516412734985352</v>
       </c>
     </row>
   </sheetData>

--- a/workingfolder/OtherData/CPIM.xlsx
+++ b/workingfolder/OtherData/CPIM.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2821,214 +2821,6 @@
         <v>1.530643701553345</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B305">
-        <v>0.3648647367954254</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B306">
-        <v>0.242437407374382</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="2">
-        <v>43983</v>
-      </c>
-      <c r="B307">
-        <v>0.7268213033676147</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B308">
-        <v>1.032827496528625</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B309">
-        <v>1.327587842941284</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B310">
-        <v>1.400642991065979</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B311">
-        <v>1.184196591377258</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B312">
-        <v>1.137762069702148</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B313">
-        <v>1.278152465820312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B314">
-        <v>1.359972953796387</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B315">
-        <v>1.675251960754395</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B316">
-        <v>2.658379793167114</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B317">
-        <v>4.151989459991455</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B318">
-        <v>4.944440364837646</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="2">
-        <v>44348</v>
-      </c>
-      <c r="B319">
-        <v>5.341006278991699</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B320">
-        <v>5.276101589202881</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="2">
-        <v>44409</v>
-      </c>
-      <c r="B321">
-        <v>5.205341339111328</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="2">
-        <v>44440</v>
-      </c>
-      <c r="B322">
-        <v>5.389902114868164</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="2">
-        <v>44470</v>
-      </c>
-      <c r="B323">
-        <v>6.23694372177124</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="2">
-        <v>44501</v>
-      </c>
-      <c r="B324">
-        <v>6.828363418579102</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="2">
-        <v>44531</v>
-      </c>
-      <c r="B325">
-        <v>7.09654712677002</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B326">
-        <v>7.52593469619751</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B327">
-        <v>7.912023544311523</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="2">
-        <v>44621</v>
-      </c>
-      <c r="B328">
-        <v>8.557582855224609</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B329">
-        <v>8.224141120910645</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="2">
-        <v>44682</v>
-      </c>
-      <c r="B330">
-        <v>8.516412734985352</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workingfolder/OtherData/CPIM.xlsx
+++ b/workingfolder/OtherData/CPIM.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2610,7 +2610,7 @@
         <v>43101</v>
       </c>
       <c r="B278">
-        <v>2.103703260421753</v>
+        <v>2.151317834854126</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>43132</v>
       </c>
       <c r="B279">
-        <v>2.226583957672119</v>
+        <v>2.263473272323608</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>43160</v>
       </c>
       <c r="B280">
-        <v>2.332587957382202</v>
+        <v>2.330948829650879</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>43191</v>
       </c>
       <c r="B281">
-        <v>2.437827110290527</v>
+        <v>2.471001148223877</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>43221</v>
       </c>
       <c r="B282">
-        <v>2.776597499847412</v>
+        <v>2.781925678253174</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>43252</v>
       </c>
       <c r="B283">
-        <v>2.848507642745972</v>
+        <v>2.807555198669434</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>43282</v>
       </c>
       <c r="B284">
-        <v>2.89875316619873</v>
+        <v>2.854128122329712</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>43313</v>
       </c>
       <c r="B285">
-        <v>2.677997350692749</v>
+        <v>2.642922163009644</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>43344</v>
       </c>
       <c r="B286">
-        <v>2.355185270309448</v>
+        <v>2.332058906555176</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>43374</v>
       </c>
       <c r="B287">
-        <v>2.528521776199341</v>
+        <v>2.49203085899353</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>43405</v>
       </c>
       <c r="B288">
-        <v>2.172805786132812</v>
+        <v>2.147327661514282</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>43435</v>
       </c>
       <c r="B289">
-        <v>1.915216565132141</v>
+        <v>2.002383232116699</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>43466</v>
       </c>
       <c r="B290">
-        <v>1.498335599899292</v>
+        <v>1.550680875778198</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>43497</v>
       </c>
       <c r="B291">
-        <v>1.481724619865417</v>
+        <v>1.520063519477844</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>43525</v>
       </c>
       <c r="B292">
-        <v>1.879951357841492</v>
+        <v>1.853135585784912</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>43556</v>
       </c>
       <c r="B293">
-        <v>2.005628108978271</v>
+        <v>1.991788864135742</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>43586</v>
       </c>
       <c r="B294">
-        <v>1.812747478485107</v>
+        <v>1.793512463569641</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>43617</v>
       </c>
       <c r="B295">
-        <v>1.689642429351807</v>
+        <v>1.649678945541382</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>43647</v>
       </c>
       <c r="B296">
-        <v>1.821160793304443</v>
+        <v>1.779754638671875</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>43678</v>
       </c>
       <c r="B297">
-        <v>1.759686350822449</v>
+        <v>1.746778845787048</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>43709</v>
       </c>
       <c r="B298">
-        <v>1.727334022521973</v>
+        <v>1.716609239578247</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>43739</v>
       </c>
       <c r="B299">
-        <v>1.757082223892212</v>
+        <v>1.769177317619324</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>43770</v>
       </c>
       <c r="B300">
-        <v>2.030815124511719</v>
+        <v>2.062208414077759</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>43800</v>
       </c>
       <c r="B301">
-        <v>2.261723756790161</v>
+        <v>2.313988447189331</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>43831</v>
       </c>
       <c r="B302">
-        <v>2.460492610931396</v>
+        <v>2.500409603118896</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>43862</v>
       </c>
       <c r="B303">
-        <v>2.319708585739136</v>
+        <v>2.339307069778442</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,295 @@
         <v>43891</v>
       </c>
       <c r="B304">
-        <v>1.530643701553345</v>
+        <v>1.542866349220276</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B305">
+        <v>0.3452092409133911</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B306">
+        <v>0.2264103293418884</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B307">
+        <v>0.7160224914550781</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B308">
+        <v>1.014145374298096</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B309">
+        <v>1.309081315994263</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B310">
+        <v>1.371483325958252</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B311">
+        <v>1.182543754577637</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B312">
+        <v>1.167550086975098</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B313">
+        <v>1.322039723396301</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B314">
+        <v>1.394784092903137</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B315">
+        <v>1.693364977836609</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B316">
+        <v>2.630522012710571</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B317">
+        <v>4.130548000335693</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B318">
+        <v>4.915035724639893</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B319">
+        <v>5.281610012054443</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B320">
+        <v>5.221502304077148</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B321">
+        <v>5.188285827636719</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B322">
+        <v>5.383639335632324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B323">
+        <v>6.23775053024292</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B324">
+        <v>6.862392425537109</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B325">
+        <v>7.194454669952393</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B326">
+        <v>7.59528112411499</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B327">
+        <v>7.954841613769531</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B328">
+        <v>8.515210151672363</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B329">
+        <v>8.227764129638672</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B330">
+        <v>8.502333641052246</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B331">
+        <v>8.932989120483398</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B332">
+        <v>8.413175582885742</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B333">
+        <v>8.227365493774414</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B334">
+        <v>8.214848518371582</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B335">
+        <v>7.762491226196289</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>44866</v>
+      </c>
+      <c r="B336">
+        <v>7.135345935821533</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B337">
+        <v>6.444939613342285</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B338">
+        <v>6.347160339355469</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B339">
+        <v>5.986446857452393</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B340">
+        <v>4.986930847167969</v>
       </c>
     </row>
   </sheetData>
